--- a/Пользователи.xlsx
+++ b/Пользователи.xlsx
@@ -36,7 +36,7 @@
     <t>г.Пятигорск</t>
   </si>
   <si>
-    <t xml:space="preserve">ООО \"Кинотеатр Квант\"</t>
+    <t xml:space="preserve">ООО \"Ромашка\"</t>
   </si>
   <si>
     <t xml:space="preserve">г. Железноводск, ул. Мира, 123</t>
@@ -80,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,74 +598,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.28125"/>
-    <col bestFit="1" min="2" max="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="28.57421875"/>
-    <col customWidth="1" min="4" max="4" width="14.7109375"/>
+    <col customWidth="1" min="1" max="1" style="1" width="24.28125"/>
+    <col bestFit="1" min="2" max="2" style="1" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="28.57421875"/>
+    <col customWidth="1" min="4" max="4" style="1" width="14.7109375"/>
+    <col min="5" max="5" style="2" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>79198634592</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>26320045123</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1">
+        <v>4140784214</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>79884581555</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>26320045111</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>79884581555</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
     </row>
